--- a/IQC/quy trinh chop dau IQC.xlsx
+++ b/IQC/quy trinh chop dau IQC.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\request weight\IQC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2025\2025document\IQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132B1195-6A2D-4A06-91EA-2B4D6C81C197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{11FA6B74-A49A-465F-A649-F83081900D65}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="merit IQC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -339,19 +338,19 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Can save time if delete chop stam</t>
-  </si>
-  <si>
     <t>Save manpower / month</t>
   </si>
   <si>
     <t>Pax</t>
+  </si>
+  <si>
+    <t>Can save time if delete chop stamp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -769,7 +768,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -870,201 +869,198 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Using stamp regulation at PQC ( 4.Sep)-ver 2" xfId="1" xr:uid="{83BA98DB-7D0F-4620-AB31-E53F815B0958}"/>
+    <cellStyle name="Normal_Using stamp regulation at PQC ( 4.Sep)-ver 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,7 +1105,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2410219" y="27151892"/>
+          <a:off x="2418878" y="26881296"/>
           <a:ext cx="0" cy="907"/>
           <a:chOff x="573" y="340"/>
           <a:chExt cx="100" cy="76"/>
@@ -1314,8 +1310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2229534" y="28583304"/>
-          <a:ext cx="4075120" cy="1291157"/>
+          <a:off x="2238193" y="28310543"/>
+          <a:ext cx="4072956" cy="1288992"/>
           <a:chOff x="8058150" y="4547907"/>
           <a:chExt cx="3911802" cy="1165972"/>
         </a:xfrm>
@@ -2629,7 +2625,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6304659" y="31510592"/>
+          <a:off x="6311154" y="31233501"/>
           <a:ext cx="0" cy="7094"/>
           <a:chOff x="8312771" y="12698630"/>
           <a:chExt cx="2824348" cy="1073218"/>
@@ -3400,8 +3396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6912791" y="10133836"/>
-          <a:ext cx="4309968" cy="0"/>
+          <a:off x="6919286" y="10146825"/>
+          <a:ext cx="4296979" cy="0"/>
           <a:chOff x="5362575" y="4953000"/>
           <a:chExt cx="1143000" cy="1143000"/>
         </a:xfrm>
@@ -3753,7 +3749,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6305351" y="3620167"/>
+          <a:off x="6311846" y="3596355"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="565" y="332"/>
           <a:chExt cx="118" cy="98"/>
@@ -3960,7 +3956,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2410554" y="8707938"/>
+          <a:off x="2419213" y="8712268"/>
           <a:ext cx="0" cy="708"/>
           <a:chOff x="6400800" y="12296775"/>
           <a:chExt cx="1390650" cy="1019175"/>
@@ -5759,11 +5755,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4718A830-C96A-4526-9FC8-A44961E6F935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5783,13 +5779,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -5812,11 +5808,11 @@
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5831,79 +5827,79 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55">
+      <c r="B6" s="61">
         <v>1</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="69" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="43"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="52"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="53"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="2:10" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
@@ -5912,9 +5908,9 @@
       <c r="C11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="18" t="s">
         <v>19</v>
       </c>
@@ -5943,11 +5939,11 @@
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="6" t="s">
         <v>5</v>
       </c>
@@ -5968,11 +5964,11 @@
       <c r="C17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="23" t="s">
         <v>24</v>
       </c>
@@ -6002,11 +5998,11 @@
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="6" t="s">
         <v>5</v>
       </c>
@@ -6027,11 +6023,11 @@
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="23" t="s">
         <v>30</v>
       </c>
@@ -6052,11 +6048,11 @@
       <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="27" t="s">
         <v>35</v>
       </c>
@@ -6139,11 +6135,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -6157,6 +6148,11 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6164,362 +6160,368 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FD4FD2-2C36-4393-9A08-803E8F17A0B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C2" s="59"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="37">
         <v>507</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="37">
         <v>369</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="37">
         <v>2681</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="37">
         <v>960</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="37">
         <v>507</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="37">
         <v>369</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="37">
         <v>2681</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="37">
         <v>960</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="40">
         <v>3</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="40">
         <v>3</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="40">
         <v>3</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="40">
         <v>3</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="40">
         <v>3</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="40">
         <v>3</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="40">
         <v>3</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="43">
         <v>15</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="43">
         <v>13</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="43">
         <v>5</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="43">
         <v>7</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="43">
         <v>15</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="43">
         <v>13</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="43">
         <v>5</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="46">
         <v>10</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="46">
         <v>10</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="46">
         <v>10</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="46">
         <v>10</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="47">
         <v>10</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="47">
         <v>5</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="47">
         <v>5</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="40">
         <v>180</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="40">
         <v>45</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="40">
         <v>45</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="40">
         <v>180</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="40">
         <v>45</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="40">
         <v>45</v>
       </c>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82" t="s">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
+      <c r="B11" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="52">
         <v>120</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="52">
         <v>120</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="52">
         <v>120</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="52">
         <v>120</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="52">
         <v>120</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="52">
         <v>120</v>
       </c>
-      <c r="K11" s="85">
+      <c r="K11" s="52">
         <v>120</v>
       </c>
-      <c r="L11" s="85">
+      <c r="L11" s="52">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="86" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="54">
         <f>E8*E6+E9*E7*E6+E10+E11</f>
         <v>780</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="54">
         <f t="shared" ref="F12:G12" si="0">F8*F6+F9*F7*F6+F10+F11</f>
         <v>390</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="54">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="54">
         <f>H8*H6+H11</f>
         <v>150</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="54">
         <f>I8*I6+I9*I7*I6+I10+I11</f>
         <v>300</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="54">
         <f t="shared" ref="J12:K12" si="1">J8*J6+J9*J7*J6+J10+J11</f>
         <v>165</v>
       </c>
-      <c r="K12" s="87">
+      <c r="K12" s="54">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="L12" s="87">
+      <c r="L12" s="54">
         <f>L8*L6+L11</f>
         <v>120</v>
       </c>
@@ -6529,143 +6531,141 @@
         <v>80</v>
       </c>
       <c r="B13" s="89"/>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="55">
         <f>E12*E5</f>
         <v>395460</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="55">
         <f t="shared" ref="F13:L13" si="2">F12*F5</f>
         <v>143910</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="55">
         <f t="shared" si="2"/>
         <v>723870</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="55">
         <f t="shared" si="2"/>
         <v>144000</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="55">
         <f t="shared" si="2"/>
         <v>152100</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="55">
         <f t="shared" si="2"/>
         <v>60885</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="55">
         <f t="shared" si="2"/>
         <v>442365</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="55">
         <f t="shared" si="2"/>
         <v>115200</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="90"/>
+      <c r="C14" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92">
+      <c r="D14" s="90"/>
+      <c r="E14" s="82">
         <f>SUM(E13:H13)/3600</f>
         <v>390.9</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92">
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82">
         <f>SUM(I13:L13)/3600</f>
         <v>214.04166666666666</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="93">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="83">
         <f>E14-I14</f>
         <v>176.85833333333332</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="I16" s="95"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="I16" s="57"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="96" t="s">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97">
+      <c r="F17" s="95"/>
+      <c r="G17" s="96">
         <f>8*24</f>
         <v>192</v>
       </c>
-      <c r="I17" s="97" t="s">
+      <c r="H17" s="96" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="95"/>
+      <c r="G18" s="97">
         <f>E15</f>
         <v>176.85833333333332</v>
       </c>
-      <c r="I18" s="97" t="s">
+      <c r="H18" s="96" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="96" t="s">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="95"/>
+      <c r="G19" s="98">
+        <f>G18/G17</f>
+        <v>0.92113715277777775</v>
+      </c>
+      <c r="H19" s="96" t="s">
         <v>88</v>
-      </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99">
-        <f>H18/H17</f>
-        <v>0.92113715277777775</v>
-      </c>
-      <c r="I19" s="97" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:H3"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A12"/>
@@ -6673,12 +6673,11 @@
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
